--- a/DAVID/MUSC.DAVID_toJoin.xlsx
+++ b/DAVID/MUSC.DAVID_toJoin.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\ABRG_GBIRG_OntologyStudy\DAVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\DAVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEA5754A-E633-43DA-A665-63AF43252D03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4CCFFF9-CA9D-447D-ABB9-AED734A84E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="MUSC.DAVID" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MUSC.DAVID!$A$1:$N$41</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="237">
   <si>
     <t>Category</t>
   </si>
@@ -121,6 +124,12 @@
     <t>GOTERM_MF_DIRECT</t>
   </si>
   <si>
+    <t>GO:0031014~troponin T binding</t>
+  </si>
+  <si>
+    <t>ENSG00000130598, ENSG00000105048, ENSG00000129991, ENSG00000114854</t>
+  </si>
+  <si>
     <t>GO:1903779~regulation of cardiac conduction</t>
   </si>
   <si>
@@ -184,6 +193,18 @@
     <t>ENSG00000213366, ENSG00000143318, ENSG00000198947</t>
   </si>
   <si>
+    <t>GO:0055010~ventricular cardiac muscle tissue morphogenesis</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000129991, ENSG00000159173, ENSG00000114854</t>
+  </si>
+  <si>
+    <t>GO:0007274~neuromuscular synaptic transmission</t>
+  </si>
+  <si>
+    <t>ENSG00000135902, ENSG00000185482, ENSG00000170175, ENSG00000138435</t>
+  </si>
+  <si>
     <t>GO:0042383~sarcolemma</t>
   </si>
   <si>
@@ -214,16 +235,502 @@
     <t>ENSG00000092054, ENSG00000129991, ENSG00000109063, ENSG00000133020</t>
   </si>
   <si>
+    <t>GO:0006942~regulation of striated muscle contraction</t>
+  </si>
+  <si>
+    <t>ENSG00000159173, ENSG00000196296, ENSG00000130595</t>
+  </si>
+  <si>
     <t>GO:0048306~calcium-dependent protein binding</t>
   </si>
   <si>
     <t>ENSG00000101470, ENSG00000129991, ENSG00000114854, ENSG00000130595</t>
   </si>
   <si>
+    <t>GO:0055119~relaxation of cardiac muscle</t>
+  </si>
+  <si>
+    <t>ENSG00000213366, ENSG00000123700, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>GO:0014898~cardiac muscle hypertrophy in response to stress</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000173991, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>GO:0032982~myosin filament</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000109063, ENSG00000133020</t>
+  </si>
+  <si>
+    <t>GO:0005859~muscle myosin complex</t>
+  </si>
+  <si>
+    <t>GO:0042391~regulation of membrane potential</t>
+  </si>
+  <si>
+    <t>ENSG00000135902, ENSG00000170175, ENSG00000182533, ENSG00000138435</t>
+  </si>
+  <si>
+    <t>GO:0010880~regulation of release of sequestered calcium ion into cytosol by sarcoplasmic reticulum</t>
+  </si>
+  <si>
+    <t>ENSG00000213366, ENSG00000148834, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>GO:0043034~costamere</t>
+  </si>
+  <si>
+    <t>ENSG00000182253, ENSG00000152413, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>GO:0005516~calmodulin binding</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000105357, ENSG00000109063, ENSG00000100678, ENSG00000133020</t>
+  </si>
+  <si>
+    <t>GO:0010881~regulation of cardiac muscle contraction by regulation of the release of sequestered calcium ion</t>
+  </si>
+  <si>
+    <t>GO:0002026~regulation of the force of heart contraction</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000171298, ENSG00000174437</t>
+  </si>
+  <si>
     <t>R-HSA-418359:R-HSA-418359</t>
   </si>
   <si>
     <t>ENSG00000196296, ENSG00000100678, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>GO:0045211~postsynaptic membrane</t>
+  </si>
+  <si>
+    <t>ENSG00000135902, ENSG00000170175, ENSG00000152413, ENSG00000198947, ENSG00000138435</t>
+  </si>
+  <si>
+    <t>GO:0031674~I band</t>
+  </si>
+  <si>
+    <t>ENSG00000196296, ENSG00000143318, ENSG00000173991</t>
+  </si>
+  <si>
+    <t>GO:0004889~acetylcholine-activated cation-selective channel activity</t>
+  </si>
+  <si>
+    <t>ENSG00000135902, ENSG00000170175, ENSG00000138435</t>
+  </si>
+  <si>
+    <t>GO:0015464~acetylcholine receptor activity</t>
+  </si>
+  <si>
+    <t>GO:0005892~acetylcholine-gated channel complex</t>
+  </si>
+  <si>
+    <t>GO:0006874~cellular calcium ion homeostasis</t>
+  </si>
+  <si>
+    <t>ENSG00000129991, ENSG00000100678, ENSG00000104936, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>GO:0042166~acetylcholine binding</t>
+  </si>
+  <si>
+    <t>GO:0019228~neuronal action potential</t>
+  </si>
+  <si>
+    <t>ENSG00000105357, ENSG00000007314, ENSG00000138435</t>
+  </si>
+  <si>
+    <t>GO:0044325~ion channel binding</t>
+  </si>
+  <si>
+    <t>ENSG00000173991, ENSG00000248746, ENSG00000182533, ENSG00000152413</t>
+  </si>
+  <si>
+    <t>GO:0045214~sarcomere organization</t>
+  </si>
+  <si>
+    <t>ENSG00000109063, ENSG00000143318, ENSG00000173991</t>
+  </si>
+  <si>
+    <t>KEGG_PATHWAY</t>
+  </si>
+  <si>
+    <t>hsa04020:Calcium signaling pathway</t>
+  </si>
+  <si>
+    <t>ENSG00000101470, ENSG00000196296, ENSG00000100678, ENSG00000114854, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>GO:0046034~ATP metabolic process</t>
+  </si>
+  <si>
+    <t>GO:0002027~regulation of heart rate</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000182533, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>hsa04530:Tight junction</t>
+  </si>
+  <si>
+    <t>ENSG00000105357, ENSG00000109063, ENSG00000248746, ENSG00000133020</t>
+  </si>
+  <si>
+    <t>GO:0015276~ligand-gated ion channel activity</t>
+  </si>
+  <si>
+    <t>GO:0007271~synaptic transmission, cholinergic</t>
+  </si>
+  <si>
+    <t>GO:0002086~diaphragm contraction</t>
+  </si>
+  <si>
+    <t>ENSG00000171298, ENSG00000114854</t>
+  </si>
+  <si>
+    <t>GO:0014728~regulation of the force of skeletal muscle contraction</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000248746</t>
+  </si>
+  <si>
+    <t>GO:0090076~relaxation of skeletal muscle</t>
+  </si>
+  <si>
+    <t>ENSG00000196296, ENSG00000123700</t>
+  </si>
+  <si>
+    <t>GO:0031444~slow-twitch skeletal muscle fiber contraction</t>
+  </si>
+  <si>
+    <t>ENSG00000105048, ENSG00000198125</t>
+  </si>
+  <si>
+    <t>GO:0031448~positive regulation of fast-twitch skeletal muscle fiber contraction</t>
+  </si>
+  <si>
+    <t>ENSG00000196296, ENSG00000248746</t>
+  </si>
+  <si>
+    <t>GO:0032470~positive regulation of endoplasmic reticulum calcium ion concentration</t>
+  </si>
+  <si>
+    <t>ENSG00000196296, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>GO:0016459~myosin complex</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000105357, ENSG00000109063</t>
+  </si>
+  <si>
+    <t>GO:0098655~cation transmembrane transport</t>
+  </si>
+  <si>
+    <t>GO:0007519~skeletal muscle tissue development</t>
+  </si>
+  <si>
+    <t>ENSG00000105357, ENSG00000143318, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>GO:0031594~neuromuscular junction</t>
+  </si>
+  <si>
+    <t>ENSG00000100678, ENSG00000182533, ENSG00000138435</t>
+  </si>
+  <si>
+    <t>GO:0030172~troponin C binding</t>
+  </si>
+  <si>
+    <t>ENSG00000129991, ENSG00000130595</t>
+  </si>
+  <si>
+    <t>GO:0048630~skeletal muscle tissue growth</t>
+  </si>
+  <si>
+    <t>ENSG00000135902, ENSG00000138435</t>
+  </si>
+  <si>
+    <t>GO:0051647~nucleus localization</t>
+  </si>
+  <si>
+    <t>ENSG00000182533, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>GO:0033292~T-tubule organization</t>
+  </si>
+  <si>
+    <t>ENSG00000182533, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>GO:0017018~myosin phosphatase activity</t>
+  </si>
+  <si>
+    <t>ENSG00000109063, ENSG00000133020</t>
+  </si>
+  <si>
+    <t>GO:0035995~detection of muscle stretch</t>
+  </si>
+  <si>
+    <t>ENSG00000173991, ENSG00000182533</t>
+  </si>
+  <si>
+    <t>GO:0050881~musculoskeletal movement</t>
+  </si>
+  <si>
+    <t>GO:0003774~motor activity</t>
+  </si>
+  <si>
+    <t>GO:0034976~response to endoplasmic reticulum stress</t>
+  </si>
+  <si>
+    <t>ENSG00000196296, ENSG00000167658, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>GO:0031013~troponin I binding</t>
+  </si>
+  <si>
+    <t>ENSG00000114854, ENSG00000130595</t>
+  </si>
+  <si>
+    <t>GO:0090279~regulation of calcium ion import</t>
+  </si>
+  <si>
+    <t>ENSG00000182533, ENSG00000152413</t>
+  </si>
+  <si>
+    <t>GO:0005524~ATP binding</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000132932, ENSG00000105357, ENSG00000196296, ENSG00000109063, ENSG00000104936, ENSG00000133020, ENSG00000213341, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>R-HSA-936837:R-HSA-936837</t>
+  </si>
+  <si>
+    <t>ENSG00000132932, ENSG00000196296, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>GO:0042178~xenobiotic catabolic process</t>
+  </si>
+  <si>
+    <t>ENSG00000213366, ENSG00000148834</t>
+  </si>
+  <si>
+    <t>GO:0014894~response to denervation involved in regulation of muscle adaptation</t>
+  </si>
+  <si>
+    <t>ENSG00000143318, ENSG00000248746</t>
+  </si>
+  <si>
+    <t>GO:1901385~regulation of voltage-gated calcium channel activity</t>
+  </si>
+  <si>
+    <t>ENSG00000144681, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>GO:0030054~cell junction</t>
+  </si>
+  <si>
+    <t>ENSG00000135902, ENSG00000100678, ENSG00000170175, ENSG00000152413, ENSG00000138435</t>
+  </si>
+  <si>
+    <t>GO:0007517~muscle organ development</t>
+  </si>
+  <si>
+    <t>ENSG00000109063, ENSG00000182533, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>GO:0098909~regulation of cardiac muscle cell action potential involved in regulation of contraction</t>
+  </si>
+  <si>
+    <t>GO:0031095~platelet dense tubular network membrane</t>
+  </si>
+  <si>
+    <t>GO:0005509~calcium ion binding</t>
+  </si>
+  <si>
+    <t>ENSG00000101470, ENSG00000196296, ENSG00000143318, ENSG00000114854, ENSG00000248746, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>GO:0005388~calcium-transporting ATPase activity</t>
+  </si>
+  <si>
+    <t>GO:0060316~positive regulation of ryanodine-sensitive calcium-release channel activity</t>
+  </si>
+  <si>
+    <t>GO:0043462~regulation of ATPase activity</t>
+  </si>
+  <si>
+    <t>GO:0017166~vinculin binding</t>
+  </si>
+  <si>
+    <t>ENSG00000182253, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>GO:0050884~neuromuscular process controlling posture</t>
+  </si>
+  <si>
+    <t>ENSG00000132932, ENSG00000171298</t>
+  </si>
+  <si>
+    <t>hsa04260:Cardiac muscle contraction</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000129991, ENSG00000114854</t>
+  </si>
+  <si>
+    <t>hsa05410:Hypertrophic cardiomyopathy (HCM)</t>
+  </si>
+  <si>
+    <t>ENSG00000129991, ENSG00000114854, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>GO:0060315~negative regulation of ryanodine-sensitive calcium-release channel activity</t>
+  </si>
+  <si>
+    <t>GO:0030898~actin-dependent ATPase activity</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000105357</t>
+  </si>
+  <si>
+    <t>R-HSA-1445148:R-HSA-1445148</t>
+  </si>
+  <si>
+    <t>GO:0007512~adult heart development</t>
+  </si>
+  <si>
+    <t>ENSG00000092054, ENSG00000173991</t>
+  </si>
+  <si>
+    <t>GO:0048747~muscle fiber development</t>
+  </si>
+  <si>
+    <t>ENSG00000170175, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>hsa05414:Dilated cardiomyopathy</t>
+  </si>
+  <si>
+    <t>GO:0070588~calcium ion transmembrane transport</t>
+  </si>
+  <si>
+    <t>GO:0005523~tropomyosin binding</t>
+  </si>
+  <si>
+    <t>ENSG00000105048, ENSG00000130595</t>
+  </si>
+  <si>
+    <t>GO:0050998~nitric-oxide synthase binding</t>
+  </si>
+  <si>
+    <t>GO:0046872~metal ion binding</t>
+  </si>
+  <si>
+    <t>ENSG00000141750, ENSG00000129991, ENSG00000185482, ENSG00000159173, ENSG00000196296, ENSG00000198125, ENSG00000100678, ENSG00000144681, ENSG00000104936, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>GO:0006811~ion transport</t>
+  </si>
+  <si>
+    <t>ENSG00000135902, ENSG00000100678, ENSG00000170175</t>
+  </si>
+  <si>
+    <t>GO:0050905~neuromuscular process</t>
+  </si>
+  <si>
+    <t>GO:0016010~dystrophin-associated glycoprotein complex</t>
+  </si>
+  <si>
+    <t>GO:0035994~response to muscle stretch</t>
+  </si>
+  <si>
+    <t>ENSG00000173991, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>GO:0030048~actin filament-based movement</t>
+  </si>
+  <si>
+    <t>ENSG00000105357, ENSG00000109063</t>
+  </si>
+  <si>
+    <t>GO:1901687~glutathione derivative biosynthetic process</t>
+  </si>
+  <si>
+    <t>GO:0007568~aging</t>
+  </si>
+  <si>
+    <t>ENSG00000132932, ENSG00000167658, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>GO:0005790~smooth endoplasmic reticulum</t>
+  </si>
+  <si>
+    <t>ENSG00000123700, ENSG00000143318</t>
+  </si>
+  <si>
+    <t>R-HSA-1912420:R-HSA-1912420</t>
+  </si>
+  <si>
+    <t>GO:0048741~skeletal muscle fiber development</t>
+  </si>
+  <si>
+    <t>ENSG00000185482, ENSG00000152413</t>
+  </si>
+  <si>
+    <t>GO:0008016~regulation of heart contraction</t>
+  </si>
+  <si>
+    <t>ENSG00000104936, ENSG00000182533</t>
+  </si>
+  <si>
+    <t>GO:0005230~extracellular ligand-gated ion channel activity</t>
+  </si>
+  <si>
+    <t>hsa04261:Adrenergic signaling in cardiomyocytes</t>
+  </si>
+  <si>
+    <t>GO:0045121~membrane raft</t>
+  </si>
+  <si>
+    <t>ENSG00000167658, ENSG00000182533, ENSG00000198947</t>
+  </si>
+  <si>
+    <t>GO:0004364~glutathione transferase activity</t>
+  </si>
+  <si>
+    <t>R-HSA-156590:R-HSA-156590</t>
+  </si>
+  <si>
+    <t>GO:0042803~protein homodimerization activity</t>
+  </si>
+  <si>
+    <t>ENSG00000213366, ENSG00000196296, ENSG00000114854, ENSG00000248746, ENSG00000213341</t>
+  </si>
+  <si>
+    <t>GO:0035094~response to nicotine</t>
+  </si>
+  <si>
+    <t>GO:0034220~ion transmembrane transport</t>
+  </si>
+  <si>
+    <t>ENSG00000196296, ENSG00000143318, ENSG00000174437</t>
+  </si>
+  <si>
+    <t>hsa04022:cGMP-PKG signaling pathway</t>
+  </si>
+  <si>
+    <t>GO:0014704~intercalated disc</t>
+  </si>
+  <si>
+    <t>ENSG00000123700, ENSG00000182533</t>
   </si>
   <si>
     <t>Hit</t>
@@ -1068,14 +1575,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1119,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1163,7 +1670,7 @@
         <v>9.0520515216546096E-48</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1207,7 +1714,7 @@
         <v>1.10812162431275E-19</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1251,7 +1758,7 @@
         <v>1.03626852169036E-8</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1295,7 +1802,7 @@
         <v>5.9376906518783599E-8</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1339,7 +1846,7 @@
         <v>2.46863913380383E-5</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1383,12 +1890,12 @@
         <v>1.2037560581896001E-4</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1403,7 +1910,7 @@
         <v>1.5860126435021899E-7</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>39</v>
@@ -1427,12 +1934,12 @@
         <v>7.4542594244602896E-4</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1447,7 +1954,7 @@
         <v>1.01044712320609E-5</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>39</v>
@@ -1471,12 +1978,12 @@
         <v>4.1554637941850402E-2</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1491,7 +1998,7 @@
         <v>1.49384780710098E-5</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>39</v>
@@ -1515,12 +2022,12 @@
         <v>4.9147592853622503E-2</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1535,7 +2042,7 @@
         <v>1.49384780710098E-5</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11">
         <v>39</v>
@@ -1559,7 +2066,7 @@
         <v>4.9147592853622503E-2</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1603,12 +2110,12 @@
         <v>1.70098881436062E-11</v>
       </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1623,7 +2130,7 @@
         <v>7.9283271863844595E-7</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>40</v>
@@ -1647,12 +2154,12 @@
         <v>3.7659554135326101E-3</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1667,7 +2174,7 @@
         <v>5.0466249850100403E-6</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G14">
         <v>40</v>
@@ -1691,12 +2198,12 @@
         <v>1.59809791191984E-2</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1711,7 +2218,7 @@
         <v>3.20065798779654E-5</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -1735,12 +2242,12 @@
         <v>7.6015627210167802E-2</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1755,7 +2262,7 @@
         <v>5.1788577413272801E-5</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>40</v>
@@ -1779,12 +2286,12 @@
         <v>8.9111053461473105E-2</v>
       </c>
       <c r="N16" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1799,7 +2306,7 @@
         <v>5.6280665344088198E-5</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G17">
         <v>40</v>
@@ -1823,12 +2330,12 @@
         <v>8.9111053461473105E-2</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1843,7 +2350,7 @@
         <v>7.2578431024077604E-5</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G18">
         <v>40</v>
@@ -1867,12 +2374,12 @@
         <v>9.3231043136717498E-2</v>
       </c>
       <c r="N18" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1887,7 +2394,7 @@
         <v>7.8510352115130502E-5</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G19">
         <v>40</v>
@@ -1911,364 +2418,986 @@
         <v>9.3231043136717498E-2</v>
       </c>
       <c r="N19" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>16.279069767441801</v>
+        <v>6.9767441860465098</v>
       </c>
       <c r="E20" s="1">
-        <v>3.8854398474069898E-7</v>
+        <v>5.25456382062805E-4</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I20">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J20">
-        <v>23.558014354066898</v>
-      </c>
-      <c r="K20" s="1">
-        <v>3.9630708827953498E-5</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.9815743221775599E-5</v>
+        <v>85.424999999999997</v>
+      </c>
+      <c r="K20">
+        <v>5.5679633019184202E-2</v>
+      </c>
+      <c r="L20">
+        <v>5.72747456448457E-3</v>
       </c>
       <c r="M20">
-        <v>1.63188473591093E-3</v>
+        <v>0.49918356295966498</v>
       </c>
       <c r="N20" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.25456382062805E-4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>18.604651162790699</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2.05467137081111E-6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21">
-        <v>38</v>
-      </c>
       <c r="H21">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I21">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J21">
-        <v>12.7837940174176</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2.0955473546801999E-4</v>
-      </c>
-      <c r="L21" s="1">
-        <v>5.2513612288337602E-5</v>
+        <v>85.424999999999997</v>
+      </c>
+      <c r="K21">
+        <v>5.5679633019184202E-2</v>
+      </c>
+      <c r="L21">
+        <v>5.72747456448457E-3</v>
       </c>
       <c r="M21">
-        <v>4.32465042374544E-3</v>
+        <v>0.49918356295966498</v>
       </c>
       <c r="N21" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>11.6279069767441</v>
+        <v>9.3023255813953494</v>
       </c>
       <c r="E22" s="1">
-        <v>2.0593573446406902E-6</v>
+        <v>3.8713130178605102E-8</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>38</v>
       </c>
       <c r="H22">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <v>16881</v>
       </c>
       <c r="J22">
-        <v>52.885338345864596</v>
+        <v>444.23684210526301</v>
       </c>
       <c r="K22" s="1">
-        <v>2.10032605506782E-4</v>
+        <v>3.9487315550701396E-6</v>
       </c>
       <c r="L22" s="1">
-        <v>5.2513612288337602E-5</v>
-      </c>
-      <c r="M22">
-        <v>4.32465042374544E-3</v>
+        <v>3.94873927821772E-6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.2519029350028299E-4</v>
       </c>
       <c r="N22" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>9.3023255813953494</v>
+        <v>16.279069767441801</v>
       </c>
       <c r="E23" s="1">
-        <v>1.0769650397819901E-5</v>
+        <v>3.8854398474069898E-7</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>38</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="I23">
         <v>16881</v>
       </c>
       <c r="J23">
-        <v>88.847368421052593</v>
-      </c>
-      <c r="K23">
-        <v>1.0979071143546401E-3</v>
+        <v>23.558014354066898</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3.9630708827953498E-5</v>
       </c>
       <c r="L23" s="1">
-        <v>2.19700868115526E-4</v>
+        <v>1.9815743221775599E-5</v>
       </c>
       <c r="M23">
-        <v>1.8093012668337401E-2</v>
+        <v>1.63188473591093E-3</v>
       </c>
       <c r="N23" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>9.3023255813953494</v>
+        <v>18.604651162790699</v>
       </c>
       <c r="E24" s="1">
-        <v>2.7525304066453699E-4</v>
+        <v>2.05467137081111E-6</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>38</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="I24">
         <v>16881</v>
       </c>
       <c r="J24">
-        <v>30.637023593466399</v>
-      </c>
-      <c r="K24">
-        <v>2.7689104993205899E-2</v>
-      </c>
-      <c r="L24">
-        <v>4.6793016912971396E-3</v>
+        <v>12.7837940174176</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2.0955473546801999E-4</v>
+      </c>
+      <c r="L24" s="1">
+        <v>5.2513612288337602E-5</v>
       </c>
       <c r="M24">
-        <v>0.38535425693035202</v>
+        <v>4.32465042374544E-3</v>
       </c>
       <c r="N24" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>27.906976744186</v>
+        <v>11.6279069767441</v>
       </c>
       <c r="E25" s="1">
-        <v>2.3101500787068699E-20</v>
+        <v>2.0593573446406902E-6</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G25">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I25">
-        <v>9075</v>
+        <v>16881</v>
       </c>
       <c r="J25">
-        <v>100.833333333333</v>
+        <v>52.885338345864596</v>
       </c>
       <c r="K25" s="1">
-        <v>1.31678554486291E-18</v>
+        <v>2.10032605506782E-4</v>
       </c>
       <c r="L25" s="1">
-        <v>1.3398870456499799E-18</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1.3167855448629101E-16</v>
+        <v>5.2513612288337602E-5</v>
+      </c>
+      <c r="M25">
+        <v>4.32465042374544E-3</v>
       </c>
       <c r="N25" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>13.953488372093</v>
+        <v>9.3023255813953494</v>
       </c>
       <c r="E26" s="1">
-        <v>7.9102362953070996E-7</v>
+        <v>1.0769650397819901E-5</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I26">
-        <v>9075</v>
+        <v>16881</v>
       </c>
       <c r="J26">
-        <v>32.410714285714199</v>
-      </c>
-      <c r="K26" s="1">
-        <v>4.5087348248706799E-5</v>
+        <v>88.847368421052593</v>
+      </c>
+      <c r="K26">
+        <v>1.0979071143546401E-3</v>
       </c>
       <c r="L26" s="1">
-        <v>2.2939685256390499E-5</v>
+        <v>2.19700868115526E-4</v>
       </c>
       <c r="M26">
-        <v>2.25441734416252E-3</v>
+        <v>1.8093012668337401E-2</v>
       </c>
       <c r="N26" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.7525304066453699E-4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>58</v>
+      </c>
+      <c r="I27">
+        <v>16881</v>
+      </c>
+      <c r="J27">
+        <v>30.637023593466399</v>
+      </c>
+      <c r="K27">
+        <v>2.7689104993205899E-2</v>
+      </c>
+      <c r="L27">
+        <v>4.6793016912971396E-3</v>
+      </c>
+      <c r="M27">
+        <v>0.38535425693035202</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>11.6279069767441</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7.5301986168675099E-4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>189</v>
+      </c>
+      <c r="I28">
+        <v>16881</v>
+      </c>
+      <c r="J28">
+        <v>11.752297410192099</v>
+      </c>
+      <c r="K28">
+        <v>7.3959176451756301E-2</v>
+      </c>
+      <c r="L28">
+        <v>1.09725751274355E-2</v>
+      </c>
+      <c r="M28">
+        <v>0.90362383402410096</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E29">
+        <v>1.14882553286472E-3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <v>16881</v>
+      </c>
+      <c r="J29">
+        <v>57.943935926773399</v>
+      </c>
+      <c r="K29">
+        <v>0.110635010406681</v>
+      </c>
+      <c r="L29">
+        <v>1.30200227058002E-2</v>
+      </c>
+      <c r="M29">
+        <v>1.07223716400707</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E30">
+        <v>1.14882553286472E-3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30">
+        <v>38</v>
+      </c>
+      <c r="H30">
+        <v>23</v>
+      </c>
+      <c r="I30">
+        <v>16881</v>
+      </c>
+      <c r="J30">
+        <v>57.943935926773399</v>
+      </c>
+      <c r="K30">
+        <v>0.110635010406681</v>
+      </c>
+      <c r="L30">
+        <v>1.30200227058002E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.07223716400707</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E31">
+        <v>1.4696696295472601E-3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <v>38</v>
+      </c>
+      <c r="H31">
+        <v>26</v>
+      </c>
+      <c r="I31">
+        <v>16881</v>
+      </c>
+      <c r="J31">
+        <v>51.258097165991899</v>
+      </c>
+      <c r="K31">
+        <v>0.139306282488905</v>
+      </c>
+      <c r="L31">
+        <v>1.4990630221382001E-2</v>
+      </c>
+      <c r="M31">
+        <v>1.2345224888196999</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>11.6279069767441</v>
+      </c>
+      <c r="E32">
+        <v>2.2463690358736901E-3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>179</v>
+      </c>
+      <c r="I32">
+        <v>6879</v>
+      </c>
+      <c r="J32">
+        <v>8.3543842603837692</v>
+      </c>
+      <c r="K32">
+        <v>0.14565715980823701</v>
+      </c>
+      <c r="L32">
+        <v>8.8519036203887902E-2</v>
+      </c>
+      <c r="M32">
+        <v>8.8519036203887893</v>
+      </c>
+      <c r="N32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="E33">
+        <v>2.5291153201110802E-3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>87</v>
+      </c>
+      <c r="I33">
+        <v>6879</v>
+      </c>
+      <c r="J33">
+        <v>13.751124437781099</v>
+      </c>
+      <c r="K33">
+        <v>0.16243995760941399</v>
+      </c>
+      <c r="L33">
+        <v>8.8519036203887902E-2</v>
+      </c>
+      <c r="M33">
+        <v>8.8519036203887893</v>
+      </c>
+      <c r="N33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E34">
+        <v>2.3534080515010498E-2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>75</v>
+      </c>
+      <c r="I34">
+        <v>6879</v>
+      </c>
+      <c r="J34">
+        <v>11.963478260869501</v>
+      </c>
+      <c r="K34">
+        <v>0.81120246790412298</v>
+      </c>
+      <c r="L34">
+        <v>0.40680543636798699</v>
+      </c>
+      <c r="M34">
+        <v>40.680543636798703</v>
+      </c>
+      <c r="N34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E35">
+        <v>2.5321386166964902E-2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>78</v>
+      </c>
+      <c r="I35">
+        <v>6879</v>
+      </c>
+      <c r="J35">
+        <v>11.5033444816053</v>
+      </c>
+      <c r="K35">
+        <v>0.83392640429836795</v>
+      </c>
+      <c r="L35">
+        <v>0.40680543636798699</v>
+      </c>
+      <c r="M35">
+        <v>40.680543636798703</v>
+      </c>
+      <c r="N35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E36">
+        <v>2.9057531169141899E-2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36">
+        <v>23</v>
+      </c>
+      <c r="H36">
+        <v>84</v>
+      </c>
+      <c r="I36">
+        <v>6879</v>
+      </c>
+      <c r="J36">
+        <v>10.681677018633501</v>
+      </c>
+      <c r="K36">
+        <v>0.87307568681543901</v>
+      </c>
+      <c r="L36">
+        <v>0.40680543636798699</v>
+      </c>
+      <c r="M36">
+        <v>40.680543636798703</v>
+      </c>
+      <c r="N36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C27">
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>27.906976744186</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.3101500787068699E-20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>36</v>
+      </c>
+      <c r="I37">
+        <v>9075</v>
+      </c>
+      <c r="J37">
+        <v>100.833333333333</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1.31678554486291E-18</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.3398870456499799E-18</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1.3167855448629101E-16</v>
+      </c>
+      <c r="N37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>13.953488372093</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7.9102362953070996E-7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="H38">
+        <v>56</v>
+      </c>
+      <c r="I38">
+        <v>9075</v>
+      </c>
+      <c r="J38">
+        <v>32.410714285714199</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4.5087348248706799E-5</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2.2939685256390499E-5</v>
+      </c>
+      <c r="M38">
+        <v>2.25441734416252E-3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="D39">
         <v>6.9767441860465098</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E39" s="1">
         <v>8.7621770663503704E-4</v>
       </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27">
+      <c r="F39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39">
         <v>30</v>
       </c>
-      <c r="H27">
+      <c r="H39">
         <v>14</v>
       </c>
-      <c r="I27">
+      <c r="I39">
         <v>9075</v>
       </c>
-      <c r="J27">
+      <c r="J39">
         <v>64.821428571428498</v>
       </c>
-      <c r="K27">
+      <c r="K39">
         <v>4.8738521529906702E-2</v>
       </c>
-      <c r="L27">
+      <c r="L39">
         <v>1.6940208994944E-2</v>
       </c>
-      <c r="M27">
+      <c r="M39">
         <v>1.6648136426065701</v>
       </c>
-      <c r="N27" t="s">
-        <v>68</v>
+      <c r="N39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E40">
+        <v>1.4116441432983899E-2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40">
+        <v>30</v>
+      </c>
+      <c r="H40">
+        <v>57</v>
+      </c>
+      <c r="I40">
+        <v>9075</v>
+      </c>
+      <c r="J40">
+        <v>15.921052631578901</v>
+      </c>
+      <c r="K40">
+        <v>0.55530671801760101</v>
+      </c>
+      <c r="L40">
+        <v>0.204688400778267</v>
+      </c>
+      <c r="M40">
+        <v>20.115929042002101</v>
+      </c>
+      <c r="N40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E41">
+        <v>2.8601650786470201E-2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41">
+        <v>30</v>
+      </c>
+      <c r="H41">
+        <v>83</v>
+      </c>
+      <c r="I41">
+        <v>9075</v>
+      </c>
+      <c r="J41">
+        <v>10.933734939759001</v>
+      </c>
+      <c r="K41">
+        <v>0.80872879990961799</v>
+      </c>
+      <c r="L41">
+        <v>0.33177914912305501</v>
+      </c>
+      <c r="M41">
+        <v>32.605881896576101</v>
+      </c>
+      <c r="N41" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N27">
-    <sortCondition ref="N1"/>
+  <autoFilter ref="A1:N41">
+    <sortState ref="A2:N41">
+      <sortCondition ref="N1"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:N41">
+    <sortCondition ref="B2:B41"/>
+    <sortCondition ref="E2:E41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DAVID/MUSC.DAVID_toJoin.xlsx
+++ b/DAVID/MUSC.DAVID_toJoin.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\DAVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4CCFFF9-CA9D-447D-ABB9-AED734A84E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CE56771-8B60-41D2-B77D-A81BCF7D4DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MUSC.DAVID" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MUSC.DAVID!$A$1:$N$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MUSC.DAVID!$A$1:$N$211</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="237">
   <si>
     <t>Category</t>
   </si>
@@ -739,7 +739,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1574,8 +1574,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3389,15 +3389,3500 @@
         <v>236</v>
       </c>
     </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2.3759899934356E-5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G127">
+        <v>39</v>
+      </c>
+      <c r="H127">
+        <v>25</v>
+      </c>
+      <c r="I127">
+        <v>16792</v>
+      </c>
+      <c r="J127">
+        <v>68.890256410256399</v>
+      </c>
+      <c r="K127">
+        <v>8.5643015838797708E-3</v>
+      </c>
+      <c r="L127" s="1">
+        <v>7.8191670693062505E-4</v>
+      </c>
+      <c r="M127">
+        <v>7.1063700712755695E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>58</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2.6817075603552001E-5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>59</v>
+      </c>
+      <c r="G128">
+        <v>39</v>
+      </c>
+      <c r="H128">
+        <v>26</v>
+      </c>
+      <c r="I128">
+        <v>16792</v>
+      </c>
+      <c r="J128">
+        <v>66.240631163708002</v>
+      </c>
+      <c r="K128">
+        <v>9.6609418800751492E-3</v>
+      </c>
+      <c r="L128" s="1">
+        <v>8.0898178070715405E-4</v>
+      </c>
+      <c r="M128">
+        <v>7.3523482279738595E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1.77730494464842E-4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>71</v>
+      </c>
+      <c r="G129">
+        <v>39</v>
+      </c>
+      <c r="H129">
+        <v>9</v>
+      </c>
+      <c r="I129">
+        <v>16792</v>
+      </c>
+      <c r="J129">
+        <v>143.52136752136701</v>
+      </c>
+      <c r="K129">
+        <v>6.2317766028996302E-2</v>
+      </c>
+      <c r="L129">
+        <v>4.9491106920209896E-3</v>
+      </c>
+      <c r="M129">
+        <v>0.44979486676102398</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>74</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3.2444545085244899E-4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>75</v>
+      </c>
+      <c r="G130">
+        <v>39</v>
+      </c>
+      <c r="H130">
+        <v>12</v>
+      </c>
+      <c r="I130">
+        <v>16792</v>
+      </c>
+      <c r="J130">
+        <v>107.641025641025</v>
+      </c>
+      <c r="K130">
+        <v>0.11083131118312101</v>
+      </c>
+      <c r="L130">
+        <v>8.3892323720418903E-3</v>
+      </c>
+      <c r="M130">
+        <v>0.76244680950325505</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E131" s="1">
+        <v>5.1395620495537297E-4</v>
+      </c>
+      <c r="F131" t="s">
+        <v>77</v>
+      </c>
+      <c r="G131">
+        <v>39</v>
+      </c>
+      <c r="H131">
+        <v>15</v>
+      </c>
+      <c r="I131">
+        <v>16792</v>
+      </c>
+      <c r="J131">
+        <v>86.112820512820505</v>
+      </c>
+      <c r="K131">
+        <v>0.16980940656635099</v>
+      </c>
+      <c r="L131">
+        <v>1.2403476412923E-2</v>
+      </c>
+      <c r="M131">
+        <v>1.1272772762021099</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="E132" s="1">
+        <v>6.4520142576833398E-4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>82</v>
+      </c>
+      <c r="G132">
+        <v>39</v>
+      </c>
+      <c r="H132">
+        <v>75</v>
+      </c>
+      <c r="I132">
+        <v>16792</v>
+      </c>
+      <c r="J132">
+        <v>22.963418803418801</v>
+      </c>
+      <c r="K132">
+        <v>0.20835189368939899</v>
+      </c>
+      <c r="L132">
+        <v>1.4597682258008501E-2</v>
+      </c>
+      <c r="M132">
+        <v>1.3266954317361299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>83</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E133" s="1">
+        <v>7.4570673136589998E-4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>84</v>
+      </c>
+      <c r="G133">
+        <v>39</v>
+      </c>
+      <c r="H133">
+        <v>18</v>
+      </c>
+      <c r="I133">
+        <v>16792</v>
+      </c>
+      <c r="J133">
+        <v>71.760683760683705</v>
+      </c>
+      <c r="K133">
+        <v>0.236656030253453</v>
+      </c>
+      <c r="L133">
+        <v>1.5856517836793999E-2</v>
+      </c>
+      <c r="M133">
+        <v>1.4411034166589001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>89</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E134" s="1">
+        <v>8.3224817375438399E-4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>84</v>
+      </c>
+      <c r="G134">
+        <v>39</v>
+      </c>
+      <c r="H134">
+        <v>19</v>
+      </c>
+      <c r="I134">
+        <v>16792</v>
+      </c>
+      <c r="J134">
+        <v>67.983805668016203</v>
+      </c>
+      <c r="K134">
+        <v>0.260217663414959</v>
+      </c>
+      <c r="L134">
+        <v>1.5856517836793999E-2</v>
+      </c>
+      <c r="M134">
+        <v>1.4411034166589001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>90</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E135" s="1">
+        <v>8.3224817375438399E-4</v>
+      </c>
+      <c r="F135" t="s">
+        <v>91</v>
+      </c>
+      <c r="G135">
+        <v>39</v>
+      </c>
+      <c r="H135">
+        <v>19</v>
+      </c>
+      <c r="I135">
+        <v>16792</v>
+      </c>
+      <c r="J135">
+        <v>67.983805668016203</v>
+      </c>
+      <c r="K135">
+        <v>0.260217663414959</v>
+      </c>
+      <c r="L135">
+        <v>1.5856517836793999E-2</v>
+      </c>
+      <c r="M135">
+        <v>1.4411034166589001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>102</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="E136">
+        <v>1.20564022459659E-3</v>
+      </c>
+      <c r="F136" t="s">
+        <v>103</v>
+      </c>
+      <c r="G136">
+        <v>39</v>
+      </c>
+      <c r="H136">
+        <v>93</v>
+      </c>
+      <c r="I136">
+        <v>16792</v>
+      </c>
+      <c r="J136">
+        <v>18.518886131789301</v>
+      </c>
+      <c r="K136">
+        <v>0.35383802338371401</v>
+      </c>
+      <c r="L136">
+        <v>2.1822088065198302E-2</v>
+      </c>
+      <c r="M136">
+        <v>1.9832781694613899</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E137">
+        <v>1.81624031832827E-3</v>
+      </c>
+      <c r="F137" t="s">
+        <v>106</v>
+      </c>
+      <c r="G137">
+        <v>39</v>
+      </c>
+      <c r="H137">
+        <v>28</v>
+      </c>
+      <c r="I137">
+        <v>16792</v>
+      </c>
+      <c r="J137">
+        <v>46.131868131868103</v>
+      </c>
+      <c r="K137">
+        <v>0.48215369492524202</v>
+      </c>
+      <c r="L137">
+        <v>3.1308523582611103E-2</v>
+      </c>
+      <c r="M137">
+        <v>2.8454431653809502</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>109</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E138">
+        <v>1.94799796814621E-3</v>
+      </c>
+      <c r="F138" t="s">
+        <v>110</v>
+      </c>
+      <c r="G138">
+        <v>39</v>
+      </c>
+      <c r="H138">
+        <v>29</v>
+      </c>
+      <c r="I138">
+        <v>16792</v>
+      </c>
+      <c r="J138">
+        <v>44.541114058355397</v>
+      </c>
+      <c r="K138">
+        <v>0.50631765638256598</v>
+      </c>
+      <c r="L138">
+        <v>3.2053421112224E-2</v>
+      </c>
+      <c r="M138">
+        <v>2.9131424160004702</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>114</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E139">
+        <v>2.3696680476035402E-3</v>
+      </c>
+      <c r="F139" t="s">
+        <v>79</v>
+      </c>
+      <c r="G139">
+        <v>39</v>
+      </c>
+      <c r="H139">
+        <v>32</v>
+      </c>
+      <c r="I139">
+        <v>16792</v>
+      </c>
+      <c r="J139">
+        <v>40.365384615384599</v>
+      </c>
+      <c r="K139">
+        <v>0.57634583953523799</v>
+      </c>
+      <c r="L139">
+        <v>3.7296514488368702E-2</v>
+      </c>
+      <c r="M139">
+        <v>3.3896555985285399</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>115</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E140">
+        <v>2.5189587287609101E-3</v>
+      </c>
+      <c r="F140" t="s">
+        <v>116</v>
+      </c>
+      <c r="G140">
+        <v>39</v>
+      </c>
+      <c r="H140">
+        <v>33</v>
+      </c>
+      <c r="I140">
+        <v>16792</v>
+      </c>
+      <c r="J140">
+        <v>39.142191142191102</v>
+      </c>
+      <c r="K140">
+        <v>0.59868694272842504</v>
+      </c>
+      <c r="L140">
+        <v>3.7994294158810497E-2</v>
+      </c>
+      <c r="M140">
+        <v>3.4530725906764199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>120</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E141">
+        <v>3.1592746539763901E-3</v>
+      </c>
+      <c r="F141" t="s">
+        <v>99</v>
+      </c>
+      <c r="G141">
+        <v>39</v>
+      </c>
+      <c r="H141">
+        <v>37</v>
+      </c>
+      <c r="I141">
+        <v>16792</v>
+      </c>
+      <c r="J141">
+        <v>34.910602910602897</v>
+      </c>
+      <c r="K141">
+        <v>0.68192491339976702</v>
+      </c>
+      <c r="L141">
+        <v>4.5746296989578099E-2</v>
+      </c>
+      <c r="M141">
+        <v>4.1576054446329298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>121</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E142">
+        <v>4.5209781246641802E-3</v>
+      </c>
+      <c r="F142" t="s">
+        <v>122</v>
+      </c>
+      <c r="G142">
+        <v>39</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>16792</v>
+      </c>
+      <c r="J142">
+        <v>430.56410256410197</v>
+      </c>
+      <c r="K142">
+        <v>0.80607906845263499</v>
+      </c>
+      <c r="L142">
+        <v>5.2793357455755897E-2</v>
+      </c>
+      <c r="M142">
+        <v>4.7980703323048797</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E143">
+        <v>4.5209781246641802E-3</v>
+      </c>
+      <c r="F143" t="s">
+        <v>124</v>
+      </c>
+      <c r="G143">
+        <v>39</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>16792</v>
+      </c>
+      <c r="J143">
+        <v>430.56410256410197</v>
+      </c>
+      <c r="K143">
+        <v>0.80607906845263499</v>
+      </c>
+      <c r="L143">
+        <v>5.2793357455755897E-2</v>
+      </c>
+      <c r="M143">
+        <v>4.7980703323048797</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E144">
+        <v>4.5209781246641802E-3</v>
+      </c>
+      <c r="F144" t="s">
+        <v>126</v>
+      </c>
+      <c r="G144">
+        <v>39</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>16792</v>
+      </c>
+      <c r="J144">
+        <v>430.56410256410197</v>
+      </c>
+      <c r="K144">
+        <v>0.80607906845263499</v>
+      </c>
+      <c r="L144">
+        <v>5.2793357455755897E-2</v>
+      </c>
+      <c r="M144">
+        <v>4.7980703323048797</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E145">
+        <v>4.5209781246641802E-3</v>
+      </c>
+      <c r="F145" t="s">
+        <v>128</v>
+      </c>
+      <c r="G145">
+        <v>39</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>16792</v>
+      </c>
+      <c r="J145">
+        <v>430.56410256410197</v>
+      </c>
+      <c r="K145">
+        <v>0.80607906845263499</v>
+      </c>
+      <c r="L145">
+        <v>5.2793357455755897E-2</v>
+      </c>
+      <c r="M145">
+        <v>4.7980703323048797</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E146">
+        <v>4.5209781246641802E-3</v>
+      </c>
+      <c r="F146" t="s">
+        <v>130</v>
+      </c>
+      <c r="G146">
+        <v>39</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
+        <v>16792</v>
+      </c>
+      <c r="J146">
+        <v>430.56410256410197</v>
+      </c>
+      <c r="K146">
+        <v>0.80607906845263499</v>
+      </c>
+      <c r="L146">
+        <v>5.2793357455755897E-2</v>
+      </c>
+      <c r="M146">
+        <v>4.7980703323048797</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>131</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E147">
+        <v>4.5209781246641802E-3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>132</v>
+      </c>
+      <c r="G147">
+        <v>39</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
+        <v>16792</v>
+      </c>
+      <c r="J147">
+        <v>430.56410256410197</v>
+      </c>
+      <c r="K147">
+        <v>0.80607906845263499</v>
+      </c>
+      <c r="L147">
+        <v>5.2793357455755897E-2</v>
+      </c>
+      <c r="M147">
+        <v>4.7980703323048797</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E148">
+        <v>5.2677586377915999E-3</v>
+      </c>
+      <c r="F148" t="s">
+        <v>99</v>
+      </c>
+      <c r="G148">
+        <v>39</v>
+      </c>
+      <c r="H148">
+        <v>48</v>
+      </c>
+      <c r="I148">
+        <v>16792</v>
+      </c>
+      <c r="J148">
+        <v>26.910256410256402</v>
+      </c>
+      <c r="K148">
+        <v>0.852210890227037</v>
+      </c>
+      <c r="L148">
+        <v>5.9591519590017399E-2</v>
+      </c>
+      <c r="M148">
+        <v>5.4159143494794897</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E149">
+        <v>5.9289145823632899E-3</v>
+      </c>
+      <c r="F149" t="s">
+        <v>137</v>
+      </c>
+      <c r="G149">
+        <v>39</v>
+      </c>
+      <c r="H149">
+        <v>51</v>
+      </c>
+      <c r="I149">
+        <v>16792</v>
+      </c>
+      <c r="J149">
+        <v>25.327300150829501</v>
+      </c>
+      <c r="K149">
+        <v>0.88382468084391397</v>
+      </c>
+      <c r="L149">
+        <v>6.5038396327742706E-2</v>
+      </c>
+      <c r="M149">
+        <v>5.91094817453794</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>142</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E150">
+        <v>6.7739979478495197E-3</v>
+      </c>
+      <c r="F150" t="s">
+        <v>143</v>
+      </c>
+      <c r="G150">
+        <v>39</v>
+      </c>
+      <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150">
+        <v>16792</v>
+      </c>
+      <c r="J150">
+        <v>287.04273504273499</v>
+      </c>
+      <c r="K150">
+        <v>0.91461036130637097</v>
+      </c>
+      <c r="L150">
+        <v>6.8116312697820203E-2</v>
+      </c>
+      <c r="M150">
+        <v>6.1906814578958098</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>144</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E151">
+        <v>6.7739979478495197E-3</v>
+      </c>
+      <c r="F151" t="s">
+        <v>145</v>
+      </c>
+      <c r="G151">
+        <v>39</v>
+      </c>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151">
+        <v>16792</v>
+      </c>
+      <c r="J151">
+        <v>287.04273504273499</v>
+      </c>
+      <c r="K151">
+        <v>0.91461036130637097</v>
+      </c>
+      <c r="L151">
+        <v>6.8116312697820203E-2</v>
+      </c>
+      <c r="M151">
+        <v>6.1906814578958098</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>146</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E152">
+        <v>6.7739979478495197E-3</v>
+      </c>
+      <c r="F152" t="s">
+        <v>147</v>
+      </c>
+      <c r="G152">
+        <v>39</v>
+      </c>
+      <c r="H152">
+        <v>3</v>
+      </c>
+      <c r="I152">
+        <v>16792</v>
+      </c>
+      <c r="J152">
+        <v>287.04273504273499</v>
+      </c>
+      <c r="K152">
+        <v>0.91461036130637097</v>
+      </c>
+      <c r="L152">
+        <v>6.8116312697820203E-2</v>
+      </c>
+      <c r="M152">
+        <v>6.1906814578958098</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E153">
+        <v>9.0220525116816597E-3</v>
+      </c>
+      <c r="F153" t="s">
+        <v>151</v>
+      </c>
+      <c r="G153">
+        <v>39</v>
+      </c>
+      <c r="H153">
+        <v>4</v>
+      </c>
+      <c r="I153">
+        <v>16792</v>
+      </c>
+      <c r="J153">
+        <v>215.28205128205099</v>
+      </c>
+      <c r="K153">
+        <v>0.96240202786107398</v>
+      </c>
+      <c r="L153">
+        <v>8.5946921295493695E-2</v>
+      </c>
+      <c r="M153">
+        <v>7.8111980956401696</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E154">
+        <v>9.0220525116816597E-3</v>
+      </c>
+      <c r="F154" t="s">
+        <v>143</v>
+      </c>
+      <c r="G154">
+        <v>39</v>
+      </c>
+      <c r="H154">
+        <v>4</v>
+      </c>
+      <c r="I154">
+        <v>16792</v>
+      </c>
+      <c r="J154">
+        <v>215.28205128205099</v>
+      </c>
+      <c r="K154">
+        <v>0.96240202786107398</v>
+      </c>
+      <c r="L154">
+        <v>8.5946921295493695E-2</v>
+      </c>
+      <c r="M154">
+        <v>7.8111980956401696</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E155">
+        <v>1.24721668564623E-2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>155</v>
+      </c>
+      <c r="G155">
+        <v>39</v>
+      </c>
+      <c r="H155">
+        <v>75</v>
+      </c>
+      <c r="I155">
+        <v>16792</v>
+      </c>
+      <c r="J155">
+        <v>17.2225641025641</v>
+      </c>
+      <c r="K155">
+        <v>0.98936192960634795</v>
+      </c>
+      <c r="L155">
+        <v>0.11576729235998399</v>
+      </c>
+      <c r="M155">
+        <v>10.5213920404515</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E156">
+        <v>1.3503308430469801E-2</v>
+      </c>
+      <c r="F156" t="s">
+        <v>159</v>
+      </c>
+      <c r="G156">
+        <v>39</v>
+      </c>
+      <c r="H156">
+        <v>6</v>
+      </c>
+      <c r="I156">
+        <v>16792</v>
+      </c>
+      <c r="J156">
+        <v>143.52136752136701</v>
+      </c>
+      <c r="K156">
+        <v>0.99271181851522305</v>
+      </c>
+      <c r="L156">
+        <v>0.122204941295752</v>
+      </c>
+      <c r="M156">
+        <v>11.1064711840614</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E157">
+        <v>1.5736531013735899E-2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>165</v>
+      </c>
+      <c r="G157">
+        <v>39</v>
+      </c>
+      <c r="H157">
+        <v>7</v>
+      </c>
+      <c r="I157">
+        <v>16792</v>
+      </c>
+      <c r="J157">
+        <v>123.01831501831499</v>
+      </c>
+      <c r="K157">
+        <v>0.99679140660921095</v>
+      </c>
+      <c r="L157">
+        <v>0.13247963318540401</v>
+      </c>
+      <c r="M157">
+        <v>12.0402760546956</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E158">
+        <v>1.5736531013735899E-2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>167</v>
+      </c>
+      <c r="G158">
+        <v>39</v>
+      </c>
+      <c r="H158">
+        <v>7</v>
+      </c>
+      <c r="I158">
+        <v>16792</v>
+      </c>
+      <c r="J158">
+        <v>123.01831501831499</v>
+      </c>
+      <c r="K158">
+        <v>0.99679140660921095</v>
+      </c>
+      <c r="L158">
+        <v>0.13247963318540401</v>
+      </c>
+      <c r="M158">
+        <v>12.0402760546956</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E159">
+        <v>1.5736531013735899E-2</v>
+      </c>
+      <c r="F159" t="s">
+        <v>169</v>
+      </c>
+      <c r="G159">
+        <v>39</v>
+      </c>
+      <c r="H159">
+        <v>7</v>
+      </c>
+      <c r="I159">
+        <v>16792</v>
+      </c>
+      <c r="J159">
+        <v>123.01831501831499</v>
+      </c>
+      <c r="K159">
+        <v>0.99679140660921095</v>
+      </c>
+      <c r="L159">
+        <v>0.13247963318540401</v>
+      </c>
+      <c r="M159">
+        <v>12.0402760546956</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E160">
+        <v>1.7255182824974201E-2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>173</v>
+      </c>
+      <c r="G160">
+        <v>39</v>
+      </c>
+      <c r="H160">
+        <v>89</v>
+      </c>
+      <c r="I160">
+        <v>16792</v>
+      </c>
+      <c r="J160">
+        <v>14.5133967156439</v>
+      </c>
+      <c r="K160">
+        <v>0.998165338776978</v>
+      </c>
+      <c r="L160">
+        <v>0.141963095060015</v>
+      </c>
+      <c r="M160">
+        <v>12.9021707941284</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>174</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E161">
+        <v>1.7964830794885901E-2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>147</v>
+      </c>
+      <c r="G161">
+        <v>39</v>
+      </c>
+      <c r="H161">
+        <v>8</v>
+      </c>
+      <c r="I161">
+        <v>16792</v>
+      </c>
+      <c r="J161">
+        <v>107.641025641025</v>
+      </c>
+      <c r="K161">
+        <v>0.99858749843084804</v>
+      </c>
+      <c r="L161">
+        <v>0.14451708328330401</v>
+      </c>
+      <c r="M161">
+        <v>13.134287403372101</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>179</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E162">
+        <v>2.01882183320071E-2</v>
+      </c>
+      <c r="F162" t="s">
+        <v>165</v>
+      </c>
+      <c r="G162">
+        <v>39</v>
+      </c>
+      <c r="H162">
+        <v>9</v>
+      </c>
+      <c r="I162">
+        <v>16792</v>
+      </c>
+      <c r="J162">
+        <v>95.680911680911606</v>
+      </c>
+      <c r="K162">
+        <v>0.999378212568383</v>
+      </c>
+      <c r="L162">
+        <v>0.15549223481248001</v>
+      </c>
+      <c r="M162">
+        <v>14.131752832404899</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E163">
+        <v>2.01882183320071E-2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>157</v>
+      </c>
+      <c r="G163">
+        <v>39</v>
+      </c>
+      <c r="H163">
+        <v>9</v>
+      </c>
+      <c r="I163">
+        <v>16792</v>
+      </c>
+      <c r="J163">
+        <v>95.680911680911606</v>
+      </c>
+      <c r="K163">
+        <v>0.999378212568383</v>
+      </c>
+      <c r="L163">
+        <v>0.15549223481248001</v>
+      </c>
+      <c r="M163">
+        <v>14.131752832404899</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E164">
+        <v>2.2406704163381402E-2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>184</v>
+      </c>
+      <c r="G164">
+        <v>39</v>
+      </c>
+      <c r="H164">
+        <v>10</v>
+      </c>
+      <c r="I164">
+        <v>16792</v>
+      </c>
+      <c r="J164">
+        <v>86.112820512820505</v>
+      </c>
+      <c r="K164">
+        <v>0.99972630070246205</v>
+      </c>
+      <c r="L164">
+        <v>0.168983893898835</v>
+      </c>
+      <c r="M164">
+        <v>15.357928478651001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E165">
+        <v>2.68290127438164E-2</v>
+      </c>
+      <c r="F165" t="s">
+        <v>165</v>
+      </c>
+      <c r="G165">
+        <v>39</v>
+      </c>
+      <c r="H165">
+        <v>12</v>
+      </c>
+      <c r="I165">
+        <v>16792</v>
+      </c>
+      <c r="J165">
+        <v>71.760683760683705</v>
+      </c>
+      <c r="K165">
+        <v>0.99994697588975801</v>
+      </c>
+      <c r="L165">
+        <v>0.19820617578084701</v>
+      </c>
+      <c r="M165">
+        <v>18.013765699419501</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>193</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E166">
+        <v>2.9032856457715198E-2</v>
+      </c>
+      <c r="F166" t="s">
+        <v>194</v>
+      </c>
+      <c r="G166">
+        <v>39</v>
+      </c>
+      <c r="H166">
+        <v>13</v>
+      </c>
+      <c r="I166">
+        <v>16792</v>
+      </c>
+      <c r="J166">
+        <v>66.240631163708002</v>
+      </c>
+      <c r="K166">
+        <v>0.99997666319765499</v>
+      </c>
+      <c r="L166">
+        <v>0.20607635368025301</v>
+      </c>
+      <c r="M166">
+        <v>18.729038773702602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>195</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E167">
+        <v>2.9032856457715198E-2</v>
+      </c>
+      <c r="F167" t="s">
+        <v>196</v>
+      </c>
+      <c r="G167">
+        <v>39</v>
+      </c>
+      <c r="H167">
+        <v>13</v>
+      </c>
+      <c r="I167">
+        <v>16792</v>
+      </c>
+      <c r="J167">
+        <v>66.240631163708002</v>
+      </c>
+      <c r="K167">
+        <v>0.99997666319765499</v>
+      </c>
+      <c r="L167">
+        <v>0.20607635368025301</v>
+      </c>
+      <c r="M167">
+        <v>18.729038773702602</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>198</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E168">
+        <v>2.9655222611360599E-2</v>
+      </c>
+      <c r="F168" t="s">
+        <v>93</v>
+      </c>
+      <c r="G168">
+        <v>39</v>
+      </c>
+      <c r="H168">
+        <v>119</v>
+      </c>
+      <c r="I168">
+        <v>16792</v>
+      </c>
+      <c r="J168">
+        <v>10.854557207498299</v>
+      </c>
+      <c r="K168">
+        <v>0.999981497162727</v>
+      </c>
+      <c r="L168">
+        <v>0.20644597279447199</v>
+      </c>
+      <c r="M168">
+        <v>18.762631229110799</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>204</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E169">
+        <v>3.3416436515912799E-2</v>
+      </c>
+      <c r="F169" t="s">
+        <v>205</v>
+      </c>
+      <c r="G169">
+        <v>39</v>
+      </c>
+      <c r="H169">
+        <v>127</v>
+      </c>
+      <c r="I169">
+        <v>16792</v>
+      </c>
+      <c r="J169">
+        <v>10.170805572380299</v>
+      </c>
+      <c r="K169">
+        <v>0.99999546408510298</v>
+      </c>
+      <c r="L169">
+        <v>0.224077832268125</v>
+      </c>
+      <c r="M169">
+        <v>20.36508475586</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>206</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E170">
+        <v>3.3425974979223103E-2</v>
+      </c>
+      <c r="F170" t="s">
+        <v>143</v>
+      </c>
+      <c r="G170">
+        <v>39</v>
+      </c>
+      <c r="H170">
+        <v>15</v>
+      </c>
+      <c r="I170">
+        <v>16792</v>
+      </c>
+      <c r="J170">
+        <v>57.408547008547004</v>
+      </c>
+      <c r="K170">
+        <v>0.99999548025991103</v>
+      </c>
+      <c r="L170">
+        <v>0.224077832268125</v>
+      </c>
+      <c r="M170">
+        <v>20.36508475586</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>208</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E171">
+        <v>3.5615270617107099E-2</v>
+      </c>
+      <c r="F171" t="s">
+        <v>209</v>
+      </c>
+      <c r="G171">
+        <v>39</v>
+      </c>
+      <c r="H171">
+        <v>16</v>
+      </c>
+      <c r="I171">
+        <v>16792</v>
+      </c>
+      <c r="J171">
+        <v>53.820512820512803</v>
+      </c>
+      <c r="K171">
+        <v>0.99999801107864095</v>
+      </c>
+      <c r="L171">
+        <v>0.23441323569805</v>
+      </c>
+      <c r="M171">
+        <v>21.304407332778599</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>210</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E172">
+        <v>3.7799737696987502E-2</v>
+      </c>
+      <c r="F172" t="s">
+        <v>211</v>
+      </c>
+      <c r="G172">
+        <v>39</v>
+      </c>
+      <c r="H172">
+        <v>17</v>
+      </c>
+      <c r="I172">
+        <v>16792</v>
+      </c>
+      <c r="J172">
+        <v>50.654600301659102</v>
+      </c>
+      <c r="K172">
+        <v>0.99999912481374698</v>
+      </c>
+      <c r="L172">
+        <v>0.24434830439838301</v>
+      </c>
+      <c r="M172">
+        <v>22.207345896980101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>212</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E173">
+        <v>4.8650006603321999E-2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>165</v>
+      </c>
+      <c r="G173">
+        <v>39</v>
+      </c>
+      <c r="H173">
+        <v>22</v>
+      </c>
+      <c r="I173">
+        <v>16792</v>
+      </c>
+      <c r="J173">
+        <v>39.142191142191102</v>
+      </c>
+      <c r="K173">
+        <v>0.99999998557234704</v>
+      </c>
+      <c r="L173">
+        <v>0.30897021737548303</v>
+      </c>
+      <c r="M173">
+        <v>28.080442407882298</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>213</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E174">
+        <v>5.3577522401976801E-2</v>
+      </c>
+      <c r="F174" t="s">
+        <v>214</v>
+      </c>
+      <c r="G174">
+        <v>39</v>
+      </c>
+      <c r="H174">
+        <v>165</v>
+      </c>
+      <c r="I174">
+        <v>16792</v>
+      </c>
+      <c r="J174">
+        <v>7.8284382284382197</v>
+      </c>
+      <c r="K174">
+        <v>0.99999999779815496</v>
+      </c>
+      <c r="L174">
+        <v>0.33439763981923498</v>
+      </c>
+      <c r="M174">
+        <v>30.391387707328199</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>218</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E175">
+        <v>6.1513138766547799E-2</v>
+      </c>
+      <c r="F175" t="s">
+        <v>219</v>
+      </c>
+      <c r="G175">
+        <v>39</v>
+      </c>
+      <c r="H175">
+        <v>28</v>
+      </c>
+      <c r="I175">
+        <v>16792</v>
+      </c>
+      <c r="J175">
+        <v>30.754578754578699</v>
+      </c>
+      <c r="K175">
+        <v>0.99999999989552601</v>
+      </c>
+      <c r="L175">
+        <v>0.37741959717780199</v>
+      </c>
+      <c r="M175">
+        <v>34.301394329142703</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>220</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E176">
+        <v>6.7881041652003496E-2</v>
+      </c>
+      <c r="F176" t="s">
+        <v>221</v>
+      </c>
+      <c r="G176">
+        <v>39</v>
+      </c>
+      <c r="H176">
+        <v>31</v>
+      </c>
+      <c r="I176">
+        <v>16792</v>
+      </c>
+      <c r="J176">
+        <v>27.778329197683998</v>
+      </c>
+      <c r="K176">
+        <v>0.999999999991115</v>
+      </c>
+      <c r="L176">
+        <v>0.40954895130042102</v>
+      </c>
+      <c r="M176">
+        <v>37.221437839181903</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>230</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E177">
+        <v>8.0490882457649196E-2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>143</v>
+      </c>
+      <c r="G177">
+        <v>39</v>
+      </c>
+      <c r="H177">
+        <v>37</v>
+      </c>
+      <c r="I177">
+        <v>16792</v>
+      </c>
+      <c r="J177">
+        <v>23.273735273735198</v>
+      </c>
+      <c r="K177">
+        <v>0.99999999999993505</v>
+      </c>
+      <c r="L177">
+        <v>0.47655968170424401</v>
+      </c>
+      <c r="M177">
+        <v>43.311639580302803</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>231</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E178">
+        <v>8.16207189659202E-2</v>
+      </c>
+      <c r="F178" t="s">
+        <v>232</v>
+      </c>
+      <c r="G178">
+        <v>39</v>
+      </c>
+      <c r="H178">
+        <v>210</v>
+      </c>
+      <c r="I178">
+        <v>16792</v>
+      </c>
+      <c r="J178">
+        <v>6.1509157509157504</v>
+      </c>
+      <c r="K178">
+        <v>0.99999999999995803</v>
+      </c>
+      <c r="L178">
+        <v>0.47655968170424401</v>
+      </c>
+      <c r="M178">
+        <v>43.311639580302803</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>85</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E179" s="1">
+        <v>7.4574452393289003E-4</v>
+      </c>
+      <c r="F179" t="s">
+        <v>86</v>
+      </c>
+      <c r="G179">
+        <v>40</v>
+      </c>
+      <c r="H179">
+        <v>19</v>
+      </c>
+      <c r="I179">
+        <v>18224</v>
+      </c>
+      <c r="J179">
+        <v>71.936842105263096</v>
+      </c>
+      <c r="K179">
+        <v>7.8098115966359405E-2</v>
+      </c>
+      <c r="L179">
+        <v>7.3896502826077204E-3</v>
+      </c>
+      <c r="M179">
+        <v>0.64405208885113197</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>94</v>
+      </c>
+      <c r="B180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
+      <c r="D180">
+        <v>11.6279069767441</v>
+      </c>
+      <c r="E180">
+        <v>1.04581394620382E-3</v>
+      </c>
+      <c r="F180" t="s">
+        <v>95</v>
+      </c>
+      <c r="G180">
+        <v>40</v>
+      </c>
+      <c r="H180">
+        <v>211</v>
+      </c>
+      <c r="I180">
+        <v>18224</v>
+      </c>
+      <c r="J180">
+        <v>10.7962085308056</v>
+      </c>
+      <c r="K180">
+        <v>0.10778966251062599</v>
+      </c>
+      <c r="L180">
+        <v>9.2013188469974808E-3</v>
+      </c>
+      <c r="M180">
+        <v>0.80194980776583602</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>96</v>
+      </c>
+      <c r="B181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E181">
+        <v>1.0974050001006099E-3</v>
+      </c>
+      <c r="F181" t="s">
+        <v>97</v>
+      </c>
+      <c r="G181">
+        <v>40</v>
+      </c>
+      <c r="H181">
+        <v>23</v>
+      </c>
+      <c r="I181">
+        <v>18224</v>
+      </c>
+      <c r="J181">
+        <v>59.426086956521701</v>
+      </c>
+      <c r="K181">
+        <v>0.11279821171287401</v>
+      </c>
+      <c r="L181">
+        <v>9.2013188469974808E-3</v>
+      </c>
+      <c r="M181">
+        <v>0.80194980776583602</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>101</v>
+      </c>
+      <c r="B182" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E182">
+        <v>1.1955529053559999E-3</v>
+      </c>
+      <c r="F182" t="s">
+        <v>99</v>
+      </c>
+      <c r="G182">
+        <v>40</v>
+      </c>
+      <c r="H182">
+        <v>24</v>
+      </c>
+      <c r="I182">
+        <v>18224</v>
+      </c>
+      <c r="J182">
+        <v>56.95</v>
+      </c>
+      <c r="K182">
+        <v>0.12224979310758601</v>
+      </c>
+      <c r="L182">
+        <v>9.3082333345574902E-3</v>
+      </c>
+      <c r="M182">
+        <v>0.81126804292014798</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>133</v>
+      </c>
+      <c r="B183" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E183">
+        <v>5.1235227763071003E-3</v>
+      </c>
+      <c r="F183" t="s">
+        <v>134</v>
+      </c>
+      <c r="G183">
+        <v>40</v>
+      </c>
+      <c r="H183">
+        <v>50</v>
+      </c>
+      <c r="I183">
+        <v>18224</v>
+      </c>
+      <c r="J183">
+        <v>27.335999999999999</v>
+      </c>
+      <c r="K183">
+        <v>0.42873354937194202</v>
+      </c>
+      <c r="L183">
+        <v>3.7230932174498299E-2</v>
+      </c>
+      <c r="M183">
+        <v>3.2448977583278298</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>138</v>
+      </c>
+      <c r="B184" t="s">
+        <v>21</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E184">
+        <v>6.16931197711425E-3</v>
+      </c>
+      <c r="F184" t="s">
+        <v>139</v>
+      </c>
+      <c r="G184">
+        <v>40</v>
+      </c>
+      <c r="H184">
+        <v>55</v>
+      </c>
+      <c r="I184">
+        <v>18224</v>
+      </c>
+      <c r="J184">
+        <v>24.850909090908999</v>
+      </c>
+      <c r="K184">
+        <v>0.490608227967608</v>
+      </c>
+      <c r="L184">
+        <v>4.2028437844090799E-2</v>
+      </c>
+      <c r="M184">
+        <v>3.6630289864115899</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>170</v>
+      </c>
+      <c r="B185" t="s">
+        <v>21</v>
+      </c>
+      <c r="C185">
+        <v>5</v>
+      </c>
+      <c r="D185">
+        <v>11.6279069767441</v>
+      </c>
+      <c r="E185">
+        <v>1.6292396643839E-2</v>
+      </c>
+      <c r="F185" t="s">
+        <v>171</v>
+      </c>
+      <c r="G185">
+        <v>40</v>
+      </c>
+      <c r="H185">
+        <v>459</v>
+      </c>
+      <c r="I185">
+        <v>18224</v>
+      </c>
+      <c r="J185">
+        <v>4.9629629629629601</v>
+      </c>
+      <c r="K185">
+        <v>0.83312277377148602</v>
+      </c>
+      <c r="L185">
+        <v>0.10446301377520301</v>
+      </c>
+      <c r="M185">
+        <v>9.10457459508652</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>175</v>
+      </c>
+      <c r="B186" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E186">
+        <v>1.91004225990778E-2</v>
+      </c>
+      <c r="F186" t="s">
+        <v>132</v>
+      </c>
+      <c r="G186">
+        <v>40</v>
+      </c>
+      <c r="H186">
+        <v>9</v>
+      </c>
+      <c r="I186">
+        <v>18224</v>
+      </c>
+      <c r="J186">
+        <v>101.244444444444</v>
+      </c>
+      <c r="K186">
+        <v>0.87779874400961</v>
+      </c>
+      <c r="L186">
+        <v>0.11566367018330399</v>
+      </c>
+      <c r="M186">
+        <v>10.080778593957699</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>207</v>
+      </c>
+      <c r="B187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E187">
+        <v>3.37100959056656E-2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>145</v>
+      </c>
+      <c r="G187">
+        <v>40</v>
+      </c>
+      <c r="H187">
+        <v>16</v>
+      </c>
+      <c r="I187">
+        <v>18224</v>
+      </c>
+      <c r="J187">
+        <v>56.95</v>
+      </c>
+      <c r="K187">
+        <v>0.97619264331835898</v>
+      </c>
+      <c r="L187">
+        <v>0.193389497564081</v>
+      </c>
+      <c r="M187">
+        <v>16.855047952832798</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>215</v>
+      </c>
+      <c r="B188" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+      <c r="D188">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E188">
+        <v>5.42138732011474E-2</v>
+      </c>
+      <c r="F188" t="s">
+        <v>216</v>
+      </c>
+      <c r="G188">
+        <v>40</v>
+      </c>
+      <c r="H188">
+        <v>26</v>
+      </c>
+      <c r="I188">
+        <v>18224</v>
+      </c>
+      <c r="J188">
+        <v>35.0461538461538</v>
+      </c>
+      <c r="K188">
+        <v>0.99770157474835397</v>
+      </c>
+      <c r="L188">
+        <v>0.29546560894625301</v>
+      </c>
+      <c r="M188">
+        <v>25.751589770544999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>224</v>
+      </c>
+      <c r="B189" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E189">
+        <v>7.1744720486105404E-2</v>
+      </c>
+      <c r="F189" t="s">
+        <v>225</v>
+      </c>
+      <c r="G189">
+        <v>40</v>
+      </c>
+      <c r="H189">
+        <v>206</v>
+      </c>
+      <c r="I189">
+        <v>18224</v>
+      </c>
+      <c r="J189">
+        <v>6.6349514563106702</v>
+      </c>
+      <c r="K189">
+        <v>0.99970094597619596</v>
+      </c>
+      <c r="L189">
+        <v>0.372389263475499</v>
+      </c>
+      <c r="M189">
+        <v>32.455944981809601</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>234</v>
+      </c>
+      <c r="B190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E190">
+        <v>9.2009594159493696E-2</v>
+      </c>
+      <c r="F190" t="s">
+        <v>235</v>
+      </c>
+      <c r="G190">
+        <v>40</v>
+      </c>
+      <c r="H190">
+        <v>45</v>
+      </c>
+      <c r="I190">
+        <v>18224</v>
+      </c>
+      <c r="J190">
+        <v>20.2488888888888</v>
+      </c>
+      <c r="K190">
+        <v>0.99997303146843797</v>
+      </c>
+      <c r="L190">
+        <v>0.45586571651749103</v>
+      </c>
+      <c r="M190">
+        <v>39.731415659781398</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>107</v>
+      </c>
+      <c r="B191" t="s">
+        <v>32</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="E191">
+        <v>1.92269484220549E-3</v>
+      </c>
+      <c r="F191" t="s">
+        <v>108</v>
+      </c>
+      <c r="G191">
+        <v>38</v>
+      </c>
+      <c r="H191">
+        <v>113</v>
+      </c>
+      <c r="I191">
+        <v>16881</v>
+      </c>
+      <c r="J191">
+        <v>15.725197950628701</v>
+      </c>
+      <c r="K191">
+        <v>0.178237331810397</v>
+      </c>
+      <c r="L191">
+        <v>1.7828624900450899E-2</v>
+      </c>
+      <c r="M191">
+        <v>1.46823969768419</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>119</v>
+      </c>
+      <c r="B192" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E192">
+        <v>2.8099031402557002E-3</v>
+      </c>
+      <c r="F192" t="s">
+        <v>99</v>
+      </c>
+      <c r="G192">
+        <v>38</v>
+      </c>
+      <c r="H192">
+        <v>36</v>
+      </c>
+      <c r="I192">
+        <v>16881</v>
+      </c>
+      <c r="J192">
+        <v>37.019736842105203</v>
+      </c>
+      <c r="K192">
+        <v>0.249498440192679</v>
+      </c>
+      <c r="L192">
+        <v>2.3884176692173499E-2</v>
+      </c>
+      <c r="M192">
+        <v>1.96693219817899</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>140</v>
+      </c>
+      <c r="B193" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E193">
+        <v>6.5614260869621601E-3</v>
+      </c>
+      <c r="F193" t="s">
+        <v>141</v>
+      </c>
+      <c r="G193">
+        <v>38</v>
+      </c>
+      <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="I193">
+        <v>16881</v>
+      </c>
+      <c r="J193">
+        <v>296.15789473684202</v>
+      </c>
+      <c r="K193">
+        <v>0.48904348016600102</v>
+      </c>
+      <c r="L193">
+        <v>5.1481958528472302E-2</v>
+      </c>
+      <c r="M193">
+        <v>4.2396907023447801</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>148</v>
+      </c>
+      <c r="B194" t="s">
+        <v>32</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E194">
+        <v>8.7392449776948298E-3</v>
+      </c>
+      <c r="F194" t="s">
+        <v>149</v>
+      </c>
+      <c r="G194">
+        <v>38</v>
+      </c>
+      <c r="H194">
+        <v>4</v>
+      </c>
+      <c r="I194">
+        <v>16881</v>
+      </c>
+      <c r="J194">
+        <v>222.11842105263099</v>
+      </c>
+      <c r="K194">
+        <v>0.59152351292308603</v>
+      </c>
+      <c r="L194">
+        <v>6.2427779016412298E-2</v>
+      </c>
+      <c r="M194">
+        <v>5.1411112131163001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>153</v>
+      </c>
+      <c r="B195" t="s">
+        <v>32</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E195">
+        <v>9.18055573770769E-3</v>
+      </c>
+      <c r="F195" t="s">
+        <v>134</v>
+      </c>
+      <c r="G195">
+        <v>38</v>
+      </c>
+      <c r="H195">
+        <v>66</v>
+      </c>
+      <c r="I195">
+        <v>16881</v>
+      </c>
+      <c r="J195">
+        <v>20.1925837320574</v>
+      </c>
+      <c r="K195">
+        <v>0.60966174232302095</v>
+      </c>
+      <c r="L195">
+        <v>6.2427779016412298E-2</v>
+      </c>
+      <c r="M195">
+        <v>5.1411112131163001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>156</v>
+      </c>
+      <c r="B196" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E196">
+        <v>1.30809560044511E-2</v>
+      </c>
+      <c r="F196" t="s">
+        <v>157</v>
+      </c>
+      <c r="G196">
+        <v>38</v>
+      </c>
+      <c r="H196">
+        <v>6</v>
+      </c>
+      <c r="I196">
+        <v>16881</v>
+      </c>
+      <c r="J196">
+        <v>148.07894736842101</v>
+      </c>
+      <c r="K196">
+        <v>0.73895462889306096</v>
+      </c>
+      <c r="L196">
+        <v>8.3391094528375703E-2</v>
+      </c>
+      <c r="M196">
+        <v>6.86750190233683</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>160</v>
+      </c>
+      <c r="B197" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197">
+        <v>9</v>
+      </c>
+      <c r="D197">
+        <v>20.930232558139501</v>
+      </c>
+      <c r="E197">
+        <v>1.4029953603106399E-2</v>
+      </c>
+      <c r="F197" t="s">
+        <v>161</v>
+      </c>
+      <c r="G197">
+        <v>38</v>
+      </c>
+      <c r="H197">
+        <v>1495</v>
+      </c>
+      <c r="I197">
+        <v>16881</v>
+      </c>
+      <c r="J197">
+        <v>2.6743355043126198</v>
+      </c>
+      <c r="K197">
+        <v>0.76335377684333505</v>
+      </c>
+      <c r="L197">
+        <v>8.4179721618638695E-2</v>
+      </c>
+      <c r="M197">
+        <v>6.9324476627114198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>176</v>
+      </c>
+      <c r="B198" t="s">
+        <v>32</v>
+      </c>
+      <c r="C198">
+        <v>6</v>
+      </c>
+      <c r="D198">
+        <v>13.953488372093</v>
+      </c>
+      <c r="E198">
+        <v>1.9283227197445501E-2</v>
+      </c>
+      <c r="F198" t="s">
+        <v>177</v>
+      </c>
+      <c r="G198">
+        <v>38</v>
+      </c>
+      <c r="H198">
+        <v>717</v>
+      </c>
+      <c r="I198">
+        <v>16881</v>
+      </c>
+      <c r="J198">
+        <v>3.7174631138515699</v>
+      </c>
+      <c r="K198">
+        <v>0.86277049446139997</v>
+      </c>
+      <c r="L198">
+        <v>0.105000141473472</v>
+      </c>
+      <c r="M198">
+        <v>8.6470704742860107</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>178</v>
+      </c>
+      <c r="B199" t="s">
+        <v>32</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E199">
+        <v>1.95588498823135E-2</v>
+      </c>
+      <c r="F199" t="s">
+        <v>132</v>
+      </c>
+      <c r="G199">
+        <v>38</v>
+      </c>
+      <c r="H199">
+        <v>9</v>
+      </c>
+      <c r="I199">
+        <v>16881</v>
+      </c>
+      <c r="J199">
+        <v>98.719298245613999</v>
+      </c>
+      <c r="K199">
+        <v>0.86664904320642699</v>
+      </c>
+      <c r="L199">
+        <v>0.105000141473472</v>
+      </c>
+      <c r="M199">
+        <v>8.6470704742860107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>181</v>
+      </c>
+      <c r="B200" t="s">
+        <v>32</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E200">
+        <v>2.1708940124096899E-2</v>
+      </c>
+      <c r="F200" t="s">
+        <v>182</v>
+      </c>
+      <c r="G200">
+        <v>38</v>
+      </c>
+      <c r="H200">
+        <v>10</v>
+      </c>
+      <c r="I200">
+        <v>16881</v>
+      </c>
+      <c r="J200">
+        <v>88.847368421052593</v>
+      </c>
+      <c r="K200">
+        <v>0.89340308320860995</v>
+      </c>
+      <c r="L200">
+        <v>0.110715594632894</v>
+      </c>
+      <c r="M200">
+        <v>9.1177548521207292</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>190</v>
+      </c>
+      <c r="B201" t="s">
+        <v>32</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E201">
+        <v>2.8131721223996601E-2</v>
+      </c>
+      <c r="F201" t="s">
+        <v>191</v>
+      </c>
+      <c r="G201">
+        <v>38</v>
+      </c>
+      <c r="H201">
+        <v>13</v>
+      </c>
+      <c r="I201">
+        <v>16881</v>
+      </c>
+      <c r="J201">
+        <v>68.344129554655794</v>
+      </c>
+      <c r="K201">
+        <v>0.94555530893545203</v>
+      </c>
+      <c r="L201">
+        <v>0.13335957260695899</v>
+      </c>
+      <c r="M201">
+        <v>10.9825530382201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202" t="s">
+        <v>32</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E202">
+        <v>3.02635167125293E-2</v>
+      </c>
+      <c r="F202" t="s">
+        <v>200</v>
+      </c>
+      <c r="G202">
+        <v>38</v>
+      </c>
+      <c r="H202">
+        <v>14</v>
+      </c>
+      <c r="I202">
+        <v>16881</v>
+      </c>
+      <c r="J202">
+        <v>63.462406015037502</v>
+      </c>
+      <c r="K202">
+        <v>0.95648079451359502</v>
+      </c>
+      <c r="L202">
+        <v>0.13335957260695899</v>
+      </c>
+      <c r="M202">
+        <v>10.9825530382201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>32</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E203">
+        <v>3.02635167125293E-2</v>
+      </c>
+      <c r="F203" t="s">
+        <v>145</v>
+      </c>
+      <c r="G203">
+        <v>38</v>
+      </c>
+      <c r="H203">
+        <v>14</v>
+      </c>
+      <c r="I203">
+        <v>16881</v>
+      </c>
+      <c r="J203">
+        <v>63.462406015037502</v>
+      </c>
+      <c r="K203">
+        <v>0.95648079451359502</v>
+      </c>
+      <c r="L203">
+        <v>0.13335957260695899</v>
+      </c>
+      <c r="M203">
+        <v>10.9825530382201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>32</v>
+      </c>
+      <c r="C204">
+        <v>10</v>
+      </c>
+      <c r="D204">
+        <v>23.2558139534883</v>
+      </c>
+      <c r="E204">
+        <v>3.1378722966343302E-2</v>
+      </c>
+      <c r="F204" t="s">
+        <v>203</v>
+      </c>
+      <c r="G204">
+        <v>38</v>
+      </c>
+      <c r="H204">
+        <v>2069</v>
+      </c>
+      <c r="I204">
+        <v>16881</v>
+      </c>
+      <c r="J204">
+        <v>2.1471089516929101</v>
+      </c>
+      <c r="K204">
+        <v>0.9613002218401</v>
+      </c>
+      <c r="L204">
+        <v>0.13335957260695899</v>
+      </c>
+      <c r="M204">
+        <v>10.9825530382201</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>222</v>
+      </c>
+      <c r="B205" t="s">
+        <v>32</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E205">
+        <v>6.9913805686629693E-2</v>
+      </c>
+      <c r="F205" t="s">
+        <v>143</v>
+      </c>
+      <c r="G205">
+        <v>38</v>
+      </c>
+      <c r="H205">
+        <v>33</v>
+      </c>
+      <c r="I205">
+        <v>16881</v>
+      </c>
+      <c r="J205">
+        <v>26.9234449760765</v>
+      </c>
+      <c r="K205">
+        <v>0.99938430419371105</v>
+      </c>
+      <c r="L205">
+        <v>0.280669483165504</v>
+      </c>
+      <c r="M205">
+        <v>23.1139574371592</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>226</v>
+      </c>
+      <c r="B206" t="s">
+        <v>32</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E206">
+        <v>7.3994577383030294E-2</v>
+      </c>
+      <c r="F206" t="s">
+        <v>165</v>
+      </c>
+      <c r="G206">
+        <v>38</v>
+      </c>
+      <c r="H206">
+        <v>35</v>
+      </c>
+      <c r="I206">
+        <v>16881</v>
+      </c>
+      <c r="J206">
+        <v>25.384962406014999</v>
+      </c>
+      <c r="K206">
+        <v>0.99960683029356501</v>
+      </c>
+      <c r="L206">
+        <v>0.280669483165504</v>
+      </c>
+      <c r="M206">
+        <v>23.1139574371592</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>228</v>
+      </c>
+      <c r="B207" t="s">
+        <v>32</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+      <c r="D207">
+        <v>11.6279069767441</v>
+      </c>
+      <c r="E207">
+        <v>7.4294863190868907E-2</v>
+      </c>
+      <c r="F207" t="s">
+        <v>229</v>
+      </c>
+      <c r="G207">
+        <v>38</v>
+      </c>
+      <c r="H207">
+        <v>730</v>
+      </c>
+      <c r="I207">
+        <v>16881</v>
+      </c>
+      <c r="J207">
+        <v>3.0427180966113898</v>
+      </c>
+      <c r="K207">
+        <v>0.99961962434405705</v>
+      </c>
+      <c r="L207">
+        <v>0.280669483165504</v>
+      </c>
+      <c r="M207">
+        <v>23.1139574371592</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>223</v>
+      </c>
+      <c r="B208" t="s">
+        <v>111</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E208">
+        <v>7.1072709797206493E-2</v>
+      </c>
+      <c r="F208" t="s">
+        <v>186</v>
+      </c>
+      <c r="G208">
+        <v>23</v>
+      </c>
+      <c r="H208">
+        <v>138</v>
+      </c>
+      <c r="I208">
+        <v>6879</v>
+      </c>
+      <c r="J208">
+        <v>6.5018903591682404</v>
+      </c>
+      <c r="K208">
+        <v>0.99426252865343301</v>
+      </c>
+      <c r="L208">
+        <v>0.829181614300743</v>
+      </c>
+      <c r="M208">
+        <v>82.918161430074306</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>233</v>
+      </c>
+      <c r="B209" t="s">
+        <v>111</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209">
+        <v>6.9767441860465098</v>
+      </c>
+      <c r="E209">
+        <v>8.9777388485145701E-2</v>
+      </c>
+      <c r="F209" t="s">
+        <v>93</v>
+      </c>
+      <c r="G209">
+        <v>23</v>
+      </c>
+      <c r="H209">
+        <v>158</v>
+      </c>
+      <c r="I209">
+        <v>6879</v>
+      </c>
+      <c r="J209">
+        <v>5.6788662630709901</v>
+      </c>
+      <c r="K209">
+        <v>0.99861855564689295</v>
+      </c>
+      <c r="L209">
+        <v>0.89777388485145704</v>
+      </c>
+      <c r="M209">
+        <v>89.777388485145707</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>217</v>
+      </c>
+      <c r="B210" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E210">
+        <v>5.6035653633832498E-2</v>
+      </c>
+      <c r="F210" t="s">
+        <v>132</v>
+      </c>
+      <c r="G210">
+        <v>30</v>
+      </c>
+      <c r="H210">
+        <v>18</v>
+      </c>
+      <c r="I210">
+        <v>9075</v>
+      </c>
+      <c r="J210">
+        <v>33.6111111111111</v>
+      </c>
+      <c r="K210">
+        <v>0.96263468035968802</v>
+      </c>
+      <c r="L210">
+        <v>0.54167798512704701</v>
+      </c>
+      <c r="M210">
+        <v>53.233870952140897</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>227</v>
+      </c>
+      <c r="B211" t="s">
+        <v>18</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="E211">
+        <v>7.4031152613812296E-2</v>
+      </c>
+      <c r="F211" t="s">
+        <v>165</v>
+      </c>
+      <c r="G211">
+        <v>30</v>
+      </c>
+      <c r="H211">
+        <v>24</v>
+      </c>
+      <c r="I211">
+        <v>9075</v>
+      </c>
+      <c r="J211">
+        <v>25.2083333333333</v>
+      </c>
+      <c r="K211">
+        <v>0.98752635375795195</v>
+      </c>
+      <c r="L211">
+        <v>0.61340097880015898</v>
+      </c>
+      <c r="M211">
+        <v>60.282509985532897</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N41">
-    <sortState ref="A2:N41">
+  <autoFilter ref="A1:N211" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:N211">
       <sortCondition ref="N1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:N41">
-    <sortCondition ref="B2:B41"/>
-    <sortCondition ref="E2:E41"/>
+  <sortState ref="A2:N211">
+    <sortCondition ref="B2:B211"/>
+    <sortCondition ref="E2:E211"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
